--- a/Assets/Configs/GameModifiers.xlsx
+++ b/Assets/Configs/GameModifiers.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\minigame\Assets\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A89E44F3-82C4-4870-B3C0-CDD1D57BE7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4EB157-578C-40E6-90A9-10930B806AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="3000" windowWidth="19200" windowHeight="9970"/>
+    <workbookView xWindow="3340" yWindow="3340" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GameModifiers" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="116">
   <si>
     <t>ModifierID</t>
   </si>
@@ -355,12 +355,30 @@
   </si>
   <si>
     <t>绑定AI思考器</t>
+  </si>
+  <si>
+    <t>碰撞时造成伤害</t>
+  </si>
+  <si>
+    <t>CharacterHitTarget|DoDamage|BeHitCharacter|10</t>
+  </si>
+  <si>
+    <t>设置跟随状态</t>
+  </si>
+  <si>
+    <t>bool_set|IsFollowTarget|true</t>
+  </si>
+  <si>
+    <t>子弹生成</t>
+  </si>
+  <si>
+    <t>CharacterCastSkill|ShootToTarget|3|MainCharacter|AimTarget</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1305,10 +1323,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -2519,6 +2539,57 @@
         <v>109</v>
       </c>
     </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>7001</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>32</v>
+      </c>
+      <c r="D72" t="s">
+        <v>115</v>
+      </c>
+      <c r="E72" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>8001</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" t="s">
+        <v>113</v>
+      </c>
+      <c r="E73" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>8001</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74" t="s">
+        <v>32</v>
+      </c>
+      <c r="D74" t="s">
+        <v>111</v>
+      </c>
+      <c r="E74" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
